--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_153.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_153.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.16, 42.54)]</t>
+          <t>[('0:00:59.224321', '0:01:05.737518'), ('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.46, 13.64)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(126.04, 127.58)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5046052631578948</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:19.441473')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.14375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2613430127041742</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A', 'D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['D', 'G', 'C', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:31.434580', '0:00:40.304603')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:53.176848', '0:01:03.382018')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.54, 45.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(96.26, 107.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
